--- a/Data/EUDA/Cannabis_detaille/statut_pro_deja_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/statut_pro_deja_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Occasionally employed.deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Occasionally employed</t>
+          <t>Regularly employed.deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Regularly employed</t>
+          <t>Student.deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Unemployed / discouraged.deja.deja.deja</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unemployed / discouraged</t>
+          <t>Receiving social benefits / pensioners / house-makers / disable.deja.deja.deja</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Receiving social benefits / pensioners / house-makers / disable</t>
+          <t>Other.deja.deja.deja</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.deja.deja.deja</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -492,30 +487,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="F2" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I2" t="n">
-        <v>108</v>
-      </c>
-      <c r="J2" t="n">
         <v>458</v>
       </c>
     </row>
@@ -526,30 +518,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>405</v>
       </c>
       <c r="D3" t="n">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="E3" t="n">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="F3" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="G3" t="n">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I3" t="n">
-        <v>92</v>
-      </c>
-      <c r="J3" t="n">
         <v>1524</v>
       </c>
     </row>
@@ -560,30 +549,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>42</v>
       </c>
     </row>
@@ -594,30 +580,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
         <v>190</v>
       </c>
     </row>
@@ -628,30 +611,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -662,30 +642,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="I7" t="n">
-        <v>211</v>
-      </c>
-      <c r="J7" t="n">
         <v>469</v>
       </c>
     </row>
@@ -696,30 +673,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="D8" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>781</v>
       </c>
       <c r="G8" t="n">
-        <v>781</v>
+        <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
         <v>1473</v>
       </c>
     </row>
@@ -729,23 +703,20 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
       <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="n">
         <v>2</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -756,30 +727,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -790,30 +758,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>453</v>
       </c>
       <c r="C11" t="n">
-        <v>453</v>
+        <v>966</v>
       </c>
       <c r="D11" t="n">
-        <v>966</v>
+        <v>470</v>
       </c>
       <c r="E11" t="n">
-        <v>470</v>
+        <v>673</v>
       </c>
       <c r="F11" t="n">
-        <v>673</v>
+        <v>799</v>
       </c>
       <c r="G11" t="n">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I11" t="n">
-        <v>285</v>
-      </c>
-      <c r="J11" t="n">
         <v>3646</v>
       </c>
     </row>
@@ -823,29 +788,26 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>2614</v>
+      </c>
       <c r="D12" t="n">
-        <v>2614</v>
+        <v>663</v>
       </c>
       <c r="E12" t="n">
-        <v>663</v>
+        <v>2218</v>
       </c>
       <c r="F12" t="n">
-        <v>2218</v>
+        <v>871</v>
       </c>
       <c r="G12" t="n">
-        <v>871</v>
+        <v>160</v>
       </c>
       <c r="H12" t="n">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="I12" t="n">
-        <v>395</v>
-      </c>
-      <c r="J12" t="n">
         <v>6921</v>
       </c>
     </row>
@@ -856,30 +818,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F13" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
         <v>299</v>
       </c>
     </row>
@@ -890,30 +849,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D14" t="n">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
         <v>488</v>
       </c>
     </row>
@@ -924,30 +880,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D15" t="n">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="F15" t="n">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -958,30 +911,27 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>250</v>
       </c>
       <c r="C16" t="n">
-        <v>250</v>
+        <v>856</v>
       </c>
       <c r="D16" t="n">
-        <v>856</v>
+        <v>440</v>
       </c>
       <c r="E16" t="n">
-        <v>440</v>
+        <v>943</v>
       </c>
       <c r="F16" t="n">
-        <v>943</v>
+        <v>71</v>
       </c>
       <c r="G16" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H16" t="n">
-        <v>65</v>
+        <v>697</v>
       </c>
       <c r="I16" t="n">
-        <v>697</v>
-      </c>
-      <c r="J16" t="n">
         <v>3322</v>
       </c>
     </row>
@@ -992,30 +942,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1025,23 +972,20 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
       <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="n">
         <v>6</v>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="I18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1052,30 +996,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="n">
-        <v>16</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1086,28 +1027,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
-      </c>
-      <c r="G20" t="n">
         <v>6</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>19</v>
+      </c>
       <c r="I20" t="n">
-        <v>19</v>
-      </c>
-      <c r="J20" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1118,30 +1056,27 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D21" t="n">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>608</v>
       </c>
       <c r="F21" t="n">
-        <v>608</v>
+        <v>173</v>
       </c>
       <c r="G21" t="n">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I21" t="n">
-        <v>350</v>
-      </c>
-      <c r="J21" t="n">
         <v>1577</v>
       </c>
     </row>
@@ -1159,7 +1094,6 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1168,30 +1102,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>72</v>
       </c>
       <c r="C23" t="n">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D23" t="n">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="F23" t="n">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
         <v>490</v>
       </c>
     </row>
@@ -1202,30 +1133,27 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="D24" t="n">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
         <v>342</v>
       </c>
     </row>
@@ -1236,30 +1164,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>156</v>
       </c>
       <c r="C25" t="n">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F25" t="n">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
         <v>370</v>
       </c>
     </row>
@@ -1270,30 +1195,27 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F26" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1304,28 +1226,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1336,30 +1255,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>406</v>
       </c>
       <c r="C28" t="n">
-        <v>406</v>
+        <v>491</v>
       </c>
       <c r="D28" t="n">
-        <v>491</v>
+        <v>348</v>
       </c>
       <c r="E28" t="n">
-        <v>348</v>
+        <v>1521</v>
       </c>
       <c r="F28" t="n">
-        <v>1521</v>
+        <v>209</v>
       </c>
       <c r="G28" t="n">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="H28" t="n">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="I28" t="n">
-        <v>62</v>
-      </c>
-      <c r="J28" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -1377,7 +1293,6 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1386,28 +1301,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>123</v>
       </c>
       <c r="C30" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D30" t="n">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F30" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>277</v>
       </c>
     </row>
@@ -1421,7 +1333,6 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1437,7 +1348,6 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1453,7 +1363,6 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1469,7 +1378,6 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1485,7 +1393,6 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
